--- a/src/main/resources/accountinfo.xlsx
+++ b/src/main/resources/accountinfo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspace\dummytest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDD9C3-4E61-4483-A272-85A8BCCF9721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32C562-31D2-4E5F-AD57-247C696E72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3505A28F-FF7B-4245-B5EC-AB0390894967}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3505A28F-FF7B-4245-B5EC-AB0390894967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>rajesh</t>
   </si>
@@ -124,13 +125,55 @@
   </si>
   <si>
     <t>14-Nov-result</t>
+  </si>
+  <si>
+    <t>krishna</t>
+  </si>
+  <si>
+    <t>revanth</t>
+  </si>
+  <si>
+    <t>koushik</t>
+  </si>
+  <si>
+    <t>rakesh</t>
+  </si>
+  <si>
+    <t>sandhya</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>ashwin</t>
+  </si>
+  <si>
+    <t>chand</t>
+  </si>
+  <si>
+    <t>ramesh</t>
+  </si>
+  <si>
+    <t>mreddy</t>
+  </si>
+  <si>
+    <t>chakra</t>
+  </si>
+  <si>
+    <t>chandu</t>
+  </si>
+  <si>
+    <t>mounik</t>
+  </si>
+  <si>
+    <t>Batch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +221,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +287,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -236,22 +362,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -260,6 +420,46 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="12" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -578,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A33E1-4407-475F-A283-99476CEEFB16}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,38 +787,38 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <v>45244</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -635,7 +835,7 @@
       <c r="D2" s="3">
         <v>670145</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>20008944179</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -644,17 +844,17 @@
       <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>35000</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -673,7 +873,7 @@
       <c r="D4" s="3">
         <v>326086</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <v>32646750611</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -682,17 +882,17 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>49000</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -711,7 +911,7 @@
       <c r="D6" s="3">
         <v>119050</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="10">
         <v>919553184313</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -730,7 +930,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -749,7 +949,7 @@
       <c r="D8" s="3">
         <v>813851</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="10">
         <v>36307692135</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -768,7 +968,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -787,7 +987,7 @@
       <c r="D10" s="3">
         <v>448567</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="10">
         <v>189491625040</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -796,17 +996,17 @@
       <c r="G10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>49500</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -825,7 +1025,7 @@
       <c r="D12" s="3">
         <v>875289</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="10">
         <v>3147414808</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -834,17 +1034,17 @@
       <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>39000</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -863,7 +1063,7 @@
       <c r="D14" s="3">
         <v>963620</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="10">
         <v>37111043388</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -872,17 +1072,17 @@
       <c r="G14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>49000</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -901,7 +1101,7 @@
       <c r="D16" s="3">
         <v>525884</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="10">
         <v>923010063005250</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -910,12 +1110,587 @@
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>49000</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3BADAE-4BB5-4C23-83F3-C5A2946085A8}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="16">
+        <v>973259</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="16">
+        <v>9865341251</v>
+      </c>
+      <c r="E2" s="16">
+        <v>552792</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="19">
+        <v>650581</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="19">
+        <v>9356874589</v>
+      </c>
+      <c r="E4" s="16">
+        <v>973259</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="19">
+        <v>639430</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>7854915263</v>
+      </c>
+      <c r="E6" s="16">
+        <v>973259</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="20">
+        <v>918707</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="20">
+        <v>8792563417</v>
+      </c>
+      <c r="E8" s="19">
+        <v>650581</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22">
+        <v>473523</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="22">
+        <v>6312478956</v>
+      </c>
+      <c r="E10" s="20">
+        <v>918707</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11">
+        <v>885500</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="11">
+        <v>856923547</v>
+      </c>
+      <c r="E18" s="22">
+        <v>473523</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="11">
+        <v>521428</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11">
+        <v>6235845628</v>
+      </c>
+      <c r="E20" s="22">
+        <v>473523</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="11">
+        <v>584330</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="11">
+        <v>9818586312</v>
+      </c>
+      <c r="E22" s="22">
+        <v>473523</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="11">
+        <v>127125</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11">
+        <v>9465897451</v>
+      </c>
+      <c r="E24" s="22">
+        <v>473523</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28">
+        <v>882786</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="28">
+        <v>9701589647</v>
+      </c>
+      <c r="E26" s="22">
+        <v>473523</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11">
+        <v>813880</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11">
+        <v>6010256341</v>
+      </c>
+      <c r="E28" s="28">
+        <v>882786</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="11">
+        <v>817299</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="11">
+        <v>9848635289</v>
+      </c>
+      <c r="E30" s="28">
+        <v>882786</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="11">
+        <v>487212</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="11">
+        <v>8795632589</v>
+      </c>
+      <c r="E32" s="28">
+        <v>882786</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="11">
+        <v>700314</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="11">
+        <v>8869574136</v>
+      </c>
+      <c r="E34" s="28">
+        <v>882786</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A28:A34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/accountinfo.xlsx
+++ b/src/main/resources/accountinfo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspace\dummytest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32C562-31D2-4E5F-AD57-247C696E72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC1240-AF74-400B-B26F-1F64164BBAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3505A28F-FF7B-4245-B5EC-AB0390894967}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3505A28F-FF7B-4245-B5EC-AB0390894967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>rajesh</t>
   </si>
@@ -167,13 +168,22 @@
   </si>
   <si>
     <t>Batch</t>
+  </si>
+  <si>
+    <t>ramraj</t>
+  </si>
+  <si>
+    <t>Dharma sartra naidu mahanthi</t>
+  </si>
+  <si>
+    <t>SBIN0003254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +274,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -460,6 +478,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -779,14 +801,14 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="A1:I16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -829,7 +851,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="33">
         <v>8631888510</v>
       </c>
       <c r="D2" s="3">
@@ -867,7 +889,7 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="33">
         <v>8631888511</v>
       </c>
       <c r="D4" s="3">
@@ -905,7 +927,7 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="33">
         <v>8631888509</v>
       </c>
       <c r="D6" s="3">
@@ -943,7 +965,7 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="33">
         <v>8631688509</v>
       </c>
       <c r="D8" s="3">
@@ -981,7 +1003,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="33">
         <v>7785617458</v>
       </c>
       <c r="D10" s="3">
@@ -1019,7 +1041,7 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="33">
         <v>9568745623</v>
       </c>
       <c r="D12" s="3">
@@ -1122,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3BADAE-4BB5-4C23-83F3-C5A2946085A8}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1136,9 +1158,9 @@
     <col min="4" max="4" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -1405,8 +1427,8 @@
       <c r="C18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="11">
-        <v>856923547</v>
+      <c r="D18" s="32">
+        <v>8569235471</v>
       </c>
       <c r="E18" s="22">
         <v>473523</v>
@@ -1685,6 +1707,29 @@
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="15">
+        <v>7854612387</v>
+      </c>
+      <c r="E38" s="15">
+        <v>249691</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="15">
+        <v>39485248533</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="15">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A18:A26"/>
@@ -1693,4 +1738,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EBA285-F469-4E60-80AB-DDD924F42E50}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>